--- a/ConvertedEqual/Illinois_Converted.xlsx
+++ b/ConvertedEqual/Illinois_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="278">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -813,6 +813,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC221"/>
+  <dimension ref="A1:AC233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1590,10 +1626,10 @@
         <v>0.5</v>
       </c>
       <c r="X7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1605,7 +1641,7 @@
         <v>0.5</v>
       </c>
       <c r="AC7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -2767,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2856,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2945,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3034,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="AC24">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3123,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>0.3461538461538461</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3212,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="AC26">
-        <v>0.3461538461538461</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3301,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="AC27">
-        <v>0.3461538461538461</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3390,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.3461538461538461</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3479,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="AC29">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3568,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="AC30">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3657,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3746,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3835,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="AC33">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3924,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="AC34">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4013,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="AC35">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4102,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="AC36">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4191,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4280,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="AC38">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4369,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="AC39">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4458,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="AC40">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4547,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="AC41">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4636,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="AC42">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4725,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="AC43">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4814,7 +4850,7 @@
         <v>1</v>
       </c>
       <c r="AC44">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4903,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="AC45">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4992,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="AC46">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5081,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="AC47">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5170,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="AC48">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5259,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="AC49">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5348,7 +5384,7 @@
         <v>1</v>
       </c>
       <c r="AC50">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5437,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="AC51">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5526,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="AC52">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5615,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="AC53">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5704,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="AC54">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5793,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="AC55">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5882,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="AC56">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5971,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6060,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="AC58">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6149,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="AC59">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6238,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="AC60">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6327,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="AC61">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6416,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="AC62">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6505,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="AC63">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6594,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="AC64">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6683,7 +6719,7 @@
         <v>1</v>
       </c>
       <c r="AC65">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6772,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="AC66">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6861,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="AC67">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6950,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="AC68">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7039,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="AC69">
-        <v>0.8461538461692306</v>
+        <v>0.8333333333499998</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7128,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="AC70">
-        <v>0.9230769230923076</v>
+        <v>0.9166666666833332</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7217,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="AC71">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7306,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="AC72">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7395,7 +7431,7 @@
         <v>1</v>
       </c>
       <c r="AC73">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7484,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="AC74">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7573,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="AC75">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7662,7 +7698,7 @@
         <v>1</v>
       </c>
       <c r="AC76">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7751,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="AC77">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7840,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7929,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="AC79">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8018,7 +8054,7 @@
         <v>1</v>
       </c>
       <c r="AC80">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8107,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="AC81">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8196,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="AC82">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8285,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="AC83">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8374,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="AC84">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8463,7 +8499,7 @@
         <v>1</v>
       </c>
       <c r="AC85">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8552,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="AC86">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8641,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="AC87">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8730,7 +8766,7 @@
         <v>1</v>
       </c>
       <c r="AC88">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8819,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="AC89">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8908,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="AC90">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8997,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="AC91">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9086,7 +9122,7 @@
         <v>1</v>
       </c>
       <c r="AC92">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9175,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="AC93">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9264,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="AC94">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9353,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="AC95">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9442,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="AC96">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9531,7 +9567,7 @@
         <v>1</v>
       </c>
       <c r="AC97">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9620,7 +9656,7 @@
         <v>1</v>
       </c>
       <c r="AC98">
-        <v>0.7948717948846155</v>
+        <v>0.7777777777916667</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9709,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="AC99">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9798,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="AC100">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9887,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="AC101">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9976,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10065,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10154,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10243,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10332,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="AC106">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10421,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="AC107">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10510,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="AC108">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10599,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="AC109">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10688,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="AC110">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10777,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10866,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="AC112">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10955,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11044,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11133,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="AC115">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11222,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="AC116">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11311,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="AC117">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11400,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="AC118">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11489,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="AC119">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11578,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="AC120">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11667,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="AC121">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11756,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="AC122">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11845,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="AC123">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11934,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -12023,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12112,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="AC126">
-        <v>0.3846153846153846</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12201,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="AC127">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12290,7 +12326,7 @@
         <v>0</v>
       </c>
       <c r="AC128">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12379,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="AC129">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12468,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="AC130">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12557,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="AC131">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12646,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="AC132">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12735,7 +12771,7 @@
         <v>0</v>
       </c>
       <c r="AC133">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12824,7 +12860,7 @@
         <v>0</v>
       </c>
       <c r="AC134">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12913,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="AC135">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13002,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="AC136">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13091,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="AC137">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13180,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="AC138">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13269,7 +13305,7 @@
         <v>0</v>
       </c>
       <c r="AC139">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13358,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="AC140">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13447,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="AC141">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13536,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="AC142">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13625,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="AC143">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13714,7 +13750,7 @@
         <v>0</v>
       </c>
       <c r="AC144">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13803,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="AC145">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13892,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="AC146">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13981,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="AC147">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14070,7 +14106,7 @@
         <v>0</v>
       </c>
       <c r="AC148">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14159,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14248,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="AC150">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14337,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="AC151">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14426,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14515,7 +14551,7 @@
         <v>0</v>
       </c>
       <c r="AC153">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14604,7 +14640,7 @@
         <v>0</v>
       </c>
       <c r="AC154">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14693,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="AC155">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14782,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="AC156">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14871,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AC157">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14960,7 +14996,7 @@
         <v>0</v>
       </c>
       <c r="AC158">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15049,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="AC159">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15138,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="AC160">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15227,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="AC161">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15316,7 +15352,7 @@
         <v>0</v>
       </c>
       <c r="AC162">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15405,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="AC163">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15494,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="AC164">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15583,7 +15619,7 @@
         <v>0</v>
       </c>
       <c r="AC165">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15672,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="AC166">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15761,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="AC167">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15850,7 +15886,7 @@
         <v>0</v>
       </c>
       <c r="AC168">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15939,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="AC169">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16028,7 +16064,7 @@
         <v>0</v>
       </c>
       <c r="AC170">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16117,7 +16153,7 @@
         <v>0</v>
       </c>
       <c r="AC171">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16206,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="AC172">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16295,7 +16331,7 @@
         <v>0</v>
       </c>
       <c r="AC173">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16384,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="AC174">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16473,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="AC175">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16562,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="AC176">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16651,7 +16687,7 @@
         <v>0</v>
       </c>
       <c r="AC177">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16740,7 +16776,7 @@
         <v>0</v>
       </c>
       <c r="AC178">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16829,7 +16865,7 @@
         <v>0</v>
       </c>
       <c r="AC179">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16918,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="AC180">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -17007,7 +17043,7 @@
         <v>0</v>
       </c>
       <c r="AC181">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17096,7 +17132,7 @@
         <v>0</v>
       </c>
       <c r="AC182">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17185,7 +17221,7 @@
         <v>0</v>
       </c>
       <c r="AC183">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17274,7 +17310,7 @@
         <v>0</v>
       </c>
       <c r="AC184">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17363,7 +17399,7 @@
         <v>0</v>
       </c>
       <c r="AC185">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17452,7 +17488,7 @@
         <v>0</v>
       </c>
       <c r="AC186">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17541,7 +17577,7 @@
         <v>0</v>
       </c>
       <c r="AC187">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17630,7 +17666,7 @@
         <v>0</v>
       </c>
       <c r="AC188">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17719,7 +17755,7 @@
         <v>0</v>
       </c>
       <c r="AC189">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17808,7 +17844,7 @@
         <v>0</v>
       </c>
       <c r="AC190">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17897,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="AC191">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17986,7 +18022,7 @@
         <v>0</v>
       </c>
       <c r="AC192">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -18075,7 +18111,7 @@
         <v>0</v>
       </c>
       <c r="AC193">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18164,7 +18200,7 @@
         <v>0</v>
       </c>
       <c r="AC194">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18253,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="AC195">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -18342,7 +18378,7 @@
         <v>0</v>
       </c>
       <c r="AC196">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18431,7 +18467,7 @@
         <v>0</v>
       </c>
       <c r="AC197">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18520,7 +18556,7 @@
         <v>0</v>
       </c>
       <c r="AC198">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18609,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="AC199">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18698,7 +18734,7 @@
         <v>0</v>
       </c>
       <c r="AC200">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18787,7 +18823,7 @@
         <v>0</v>
       </c>
       <c r="AC201">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18876,7 +18912,7 @@
         <v>0</v>
       </c>
       <c r="AC202">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18965,7 +19001,7 @@
         <v>0</v>
       </c>
       <c r="AC203">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19054,7 +19090,7 @@
         <v>0</v>
       </c>
       <c r="AC204">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19143,7 +19179,7 @@
         <v>0</v>
       </c>
       <c r="AC205">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19232,7 +19268,7 @@
         <v>0</v>
       </c>
       <c r="AC206">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19321,7 +19357,7 @@
         <v>0</v>
       </c>
       <c r="AC207">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19410,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="AC208">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19499,7 +19535,7 @@
         <v>0</v>
       </c>
       <c r="AC209">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19588,7 +19624,7 @@
         <v>0</v>
       </c>
       <c r="AC210">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19677,7 +19713,7 @@
         <v>0</v>
       </c>
       <c r="AC211">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19766,7 +19802,7 @@
         <v>0</v>
       </c>
       <c r="AC212">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19855,7 +19891,7 @@
         <v>0</v>
       </c>
       <c r="AC213">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19944,7 +19980,7 @@
         <v>0</v>
       </c>
       <c r="AC214">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20033,7 +20069,7 @@
         <v>0</v>
       </c>
       <c r="AC215">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20122,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="AC216">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20211,7 +20247,7 @@
         <v>0</v>
       </c>
       <c r="AC217">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20300,7 +20336,7 @@
         <v>0</v>
       </c>
       <c r="AC218">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20389,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="AC219">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20478,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="AC220">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20567,7 +20603,1075 @@
         <v>0</v>
       </c>
       <c r="AC221">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>1</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>1</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>1</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
+      <c r="A225" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>1</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
+      <c r="A226" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>1</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
+      <c r="A227" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>1</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>1</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>1</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>1</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>1</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>1</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>1</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
